--- a/Raj Chudasama/2022-12-07/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-07/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,103 +34,109 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>Aldridge/Mark</t>
+    <t xml:space="preserve">MR Aldridge/Mark </t>
   </si>
   <si>
     <t>ANDREWS/DAVID</t>
   </si>
   <si>
-    <t>BIRD/SARAH</t>
+    <t xml:space="preserve">BIRD/SARAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLAIR-KELLEY/BLAISE </t>
   </si>
   <si>
     <t>CHONGRUK/JOSEPH MCD</t>
   </si>
   <si>
-    <t>Elbornetti/Lois</t>
+    <t xml:space="preserve">MS Elbornetti/Lois </t>
+  </si>
+  <si>
+    <t>GET LAST NAME/HECTOR</t>
+  </si>
+  <si>
+    <t>GET LAST NAME/JOEL</t>
   </si>
   <si>
     <t>GODINEZ/JULIO</t>
   </si>
   <si>
-    <t>HIBPSHMAN/JEANETTE R</t>
-  </si>
-  <si>
-    <t>KRIEG/MICHAEL</t>
+    <t xml:space="preserve">HIBPSHMAN/JEANETTE R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRIEG/MICHAEL </t>
   </si>
   <si>
     <t>Kumar Pasupuleti/Mahesh</t>
   </si>
   <si>
-    <t>MONTENEGRO/MARLON</t>
-  </si>
-  <si>
-    <t>OESTREICH/SHAWN</t>
-  </si>
-  <si>
-    <t>ROBINSONIII/FRANK</t>
-  </si>
-  <si>
-    <t>SLAMANS/CARMYN</t>
-  </si>
-  <si>
-    <t>SMITH/ADRIAN</t>
-  </si>
-  <si>
-    <t>SWARTZ/AARON</t>
-  </si>
-  <si>
-    <t>SZELL/IMRE</t>
-  </si>
-  <si>
-    <t>THEIS/MATTHEW ROBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PRICELINE MERCHANT  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  HOME2 EMPLOYEE  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  WESCO AIR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CONTRACTOR RATE  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  FEDROOMS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  BOOKING COM VCC  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  OMNI AIR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DEUTSCHE POST WORLD   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LINDOO INSTALLATIONS  </t>
+    <t xml:space="preserve">MONTENEGRO/MARLON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OESTREICH/SHAWN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBINSONIII/FRANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLAMANS/CARMYN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMITH/ADRIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWARTZ/AARON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZELL/IMRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEIS/MATTHEW ROBER </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRICELINE MERCHANT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME2 EMPLOYEE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI AIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WESCO AIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRACTOR RATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINDOO INSTALLATIONS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEDROOMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKING COM VCC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEUTSCHE POST WORLD  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINDOO INSTALLATION </t>
   </si>
   <si>
     <t>$96.00</t>
@@ -142,21 +148,18 @@
     <t>$40.00</t>
   </si>
   <si>
+    <t>$102.00</t>
+  </si>
+  <si>
     <t>$119.00</t>
   </si>
   <si>
     <t>$85.21</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>$98.00</t>
   </si>
   <si>
-    <t>$102.00</t>
-  </si>
-  <si>
     <t>$120.00</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>L-T2T</t>
   </si>
   <si>
+    <t>L-P97</t>
+  </si>
+  <si>
     <t>L-P30</t>
   </si>
   <si>
@@ -190,16 +196,13 @@
     <t>L-BQO</t>
   </si>
   <si>
-    <t>L-P97</t>
-  </si>
-  <si>
     <t>L-DHL</t>
   </si>
   <si>
     <t>S-GVS</t>
   </si>
   <si>
-    <t>12/7/2022</t>
+    <t>12/22/2022</t>
   </si>
   <si>
     <t>NKJ</t>
@@ -569,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,384 +600,452 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
       </c>
       <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
